--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H2">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I2">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J2">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>3.618887107091667</v>
+        <v>0.2767809642300001</v>
       </c>
       <c r="R2">
-        <v>32.569983963825</v>
+        <v>2.491028678070001</v>
       </c>
       <c r="S2">
-        <v>0.04389044306366686</v>
+        <v>0.002341601283104231</v>
       </c>
       <c r="T2">
-        <v>0.05097449234261186</v>
+        <v>0.002980689488708352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H3">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I3">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J3">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
-        <v>37.37996605131833</v>
+        <v>3.224926956616667</v>
       </c>
       <c r="R3">
-        <v>336.419694461865</v>
+        <v>29.02434260955</v>
       </c>
       <c r="S3">
-        <v>0.4533502215314147</v>
+        <v>0.02728328200076597</v>
       </c>
       <c r="T3">
-        <v>0.5265223083406213</v>
+        <v>0.03472964951972526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H4">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I4">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J4">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>0.6781981514178889</v>
+        <v>0.05973395009000001</v>
       </c>
       <c r="R4">
-        <v>6.103783362760999</v>
+        <v>0.5376055508100001</v>
       </c>
       <c r="S4">
-        <v>0.008225295918283802</v>
+        <v>0.000505356625824152</v>
       </c>
       <c r="T4">
-        <v>0.009552883373587097</v>
+        <v>0.0006432825235926895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H5">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I5">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J5">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>16.36807372973733</v>
+        <v>1.255408538558334</v>
       </c>
       <c r="R5">
-        <v>98.208442378424</v>
+        <v>7.53245123135</v>
       </c>
       <c r="S5">
-        <v>0.1985146225449084</v>
+        <v>0.01062091192899159</v>
       </c>
       <c r="T5">
-        <v>0.1537036524045895</v>
+        <v>0.009013103063465538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H6">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I6">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J6">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>0.557501771701</v>
+        <v>0.03516204055333334</v>
       </c>
       <c r="R6">
-        <v>5.017515945308999</v>
+        <v>0.31645836498</v>
       </c>
       <c r="S6">
-        <v>0.006761470873403607</v>
+        <v>0.000297475223794036</v>
       </c>
       <c r="T6">
-        <v>0.007852792571748309</v>
+        <v>0.0003786644972873374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H7">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I7">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J7">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N7">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O7">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P7">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q7">
-        <v>0.7726063111250001</v>
+        <v>3.208154226669</v>
       </c>
       <c r="R7">
-        <v>4.635637866750001</v>
+        <v>28.873388040021</v>
       </c>
       <c r="S7">
-        <v>0.009370293216002926</v>
+        <v>0.02714138262529455</v>
       </c>
       <c r="T7">
-        <v>0.007255124448456088</v>
+        <v>0.034549021852678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H8">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I8">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J8">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P8">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q8">
-        <v>7.980353303725001</v>
+        <v>37.37996605131833</v>
       </c>
       <c r="R8">
-        <v>47.88211982235001</v>
+        <v>336.419694461865</v>
       </c>
       <c r="S8">
-        <v>0.09678700438560427</v>
+        <v>0.3162391485688467</v>
       </c>
       <c r="T8">
-        <v>0.07493914497911106</v>
+        <v>0.4025496197233173</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H9">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I9">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J9">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N9">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O9">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P9">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q9">
-        <v>0.1447904166316667</v>
+        <v>0.692373209227</v>
       </c>
       <c r="R9">
-        <v>0.86874249979</v>
+        <v>6.231358883043</v>
       </c>
       <c r="S9">
-        <v>0.001756041387664044</v>
+        <v>0.005857563216542947</v>
       </c>
       <c r="T9">
-        <v>0.001359647826429147</v>
+        <v>0.007456255356099014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H10">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I10">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J10">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N10">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O10">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P10">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q10">
-        <v>3.494465754340001</v>
+        <v>14.55137718873417</v>
       </c>
       <c r="R10">
-        <v>13.97786301736</v>
+        <v>87.308263132405</v>
       </c>
       <c r="S10">
-        <v>0.04238144094858289</v>
+        <v>0.1231064556439621</v>
       </c>
       <c r="T10">
-        <v>0.02187641455813654</v>
+        <v>0.1044704240008069</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H11">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I11">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J11">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N11">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O11">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P11">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q11">
-        <v>0.119022609585</v>
+        <v>0.4075614424326667</v>
       </c>
       <c r="R11">
-        <v>0.7141356575100001</v>
+        <v>3.668052981894</v>
       </c>
       <c r="S11">
-        <v>0.001443525292359215</v>
+        <v>0.003448020347783378</v>
       </c>
       <c r="T11">
-        <v>0.001117676405544489</v>
+        <v>0.004389081130783166</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H12">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I12">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J12">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N12">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O12">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P12">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q12">
-        <v>0.7002091018083333</v>
+        <v>0.139036151583</v>
       </c>
       <c r="R12">
-        <v>6.301881916274999</v>
+        <v>1.251325364247</v>
       </c>
       <c r="S12">
-        <v>0.008492248253711967</v>
+        <v>0.001176263085325791</v>
       </c>
       <c r="T12">
-        <v>0.009862922617401204</v>
+        <v>0.00149729804116706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H13">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I13">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J13">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>208.973595</v>
       </c>
       <c r="O13">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P13">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q13">
-        <v>7.232552903661666</v>
+        <v>1.619986527728333</v>
       </c>
       <c r="R13">
-        <v>65.09297613295499</v>
+        <v>14.579878749555</v>
       </c>
       <c r="S13">
-        <v>0.08771756123617591</v>
+        <v>0.01370528693146692</v>
       </c>
       <c r="T13">
-        <v>0.1018754389665182</v>
+        <v>0.01744584143812881</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H14">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I14">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J14">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N14">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O14">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P14">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q14">
-        <v>0.1312228053541111</v>
+        <v>0.030006321289</v>
       </c>
       <c r="R14">
-        <v>1.181005248187</v>
+        <v>0.270056891601</v>
       </c>
       <c r="S14">
-        <v>0.001591491222747161</v>
+        <v>0.0002538571994177065</v>
       </c>
       <c r="T14">
-        <v>0.001848362684094569</v>
+        <v>0.000323141899262282</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H15">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I15">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J15">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N15">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O15">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P15">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q15">
-        <v>3.167016230534666</v>
+        <v>0.6306328628891666</v>
       </c>
       <c r="R15">
-        <v>19.002097383208</v>
+        <v>3.783797177335</v>
       </c>
       <c r="S15">
-        <v>0.03841008062274148</v>
+        <v>0.005335232229633624</v>
       </c>
       <c r="T15">
-        <v>0.02973972196700297</v>
+        <v>0.004527577130354432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H16">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I16">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J16">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,648 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N16">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O16">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P16">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q16">
-        <v>0.107869575167</v>
+        <v>0.01766304562866667</v>
       </c>
       <c r="R16">
-        <v>0.9708261765029998</v>
+        <v>0.158967410658</v>
       </c>
       <c r="S16">
-        <v>0.001308259502732596</v>
+        <v>0.0001494315565475275</v>
       </c>
       <c r="T16">
-        <v>0.001519416514147634</v>
+        <v>0.0001902155901162088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.474576</v>
+      </c>
+      <c r="H17">
+        <v>0.949152</v>
+      </c>
+      <c r="I17">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J17">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.978421000000001</v>
+      </c>
+      <c r="N17">
+        <v>17.935263</v>
+      </c>
+      <c r="O17">
+        <v>0.05704457007880161</v>
+      </c>
+      <c r="P17">
+        <v>0.06242884486533885</v>
+      </c>
+      <c r="Q17">
+        <v>2.837215124496</v>
+      </c>
+      <c r="R17">
+        <v>17.023290746976</v>
+      </c>
+      <c r="S17">
+        <v>0.02400319181792369</v>
+      </c>
+      <c r="T17">
+        <v>0.02036955424858888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.474576</v>
+      </c>
+      <c r="H18">
+        <v>0.949152</v>
+      </c>
+      <c r="I18">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J18">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>69.657865</v>
+      </c>
+      <c r="N18">
+        <v>208.973595</v>
+      </c>
+      <c r="O18">
+        <v>0.6646576013185088</v>
+      </c>
+      <c r="P18">
+        <v>0.7273927426214574</v>
+      </c>
+      <c r="Q18">
+        <v>33.05795094024</v>
+      </c>
+      <c r="R18">
+        <v>198.34770564144</v>
+      </c>
+      <c r="S18">
+        <v>0.2796743647230652</v>
+      </c>
+      <c r="T18">
+        <v>0.2373368586719437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.474576</v>
+      </c>
+      <c r="H19">
+        <v>0.949152</v>
+      </c>
+      <c r="I19">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J19">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.290243</v>
+      </c>
+      <c r="N19">
+        <v>3.870729</v>
+      </c>
+      <c r="O19">
+        <v>0.01231116999491725</v>
+      </c>
+      <c r="P19">
+        <v>0.01347318632889677</v>
+      </c>
+      <c r="Q19">
+        <v>0.612318361968</v>
+      </c>
+      <c r="R19">
+        <v>3.673910171808</v>
+      </c>
+      <c r="S19">
+        <v>0.005180289280519607</v>
+      </c>
+      <c r="T19">
+        <v>0.004396089666880613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.474576</v>
+      </c>
+      <c r="H20">
+        <v>0.949152</v>
+      </c>
+      <c r="I20">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J20">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>27.1166075</v>
+      </c>
+      <c r="N20">
+        <v>54.233215</v>
+      </c>
+      <c r="O20">
+        <v>0.2587397603536297</v>
+      </c>
+      <c r="P20">
+        <v>0.1887743138075849</v>
+      </c>
+      <c r="Q20">
+        <v>12.86889112092</v>
+      </c>
+      <c r="R20">
+        <v>51.47556448368</v>
+      </c>
+      <c r="S20">
+        <v>0.1088724148523244</v>
+      </c>
+      <c r="T20">
+        <v>0.06159410179922559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.474576</v>
+      </c>
+      <c r="H21">
+        <v>0.949152</v>
+      </c>
+      <c r="I21">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J21">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.759494</v>
+      </c>
+      <c r="N21">
+        <v>2.278482</v>
+      </c>
+      <c r="O21">
+        <v>0.00724689825414258</v>
+      </c>
+      <c r="P21">
+        <v>0.007930912376722157</v>
+      </c>
+      <c r="Q21">
+        <v>0.360437624544</v>
+      </c>
+      <c r="R21">
+        <v>2.162625747264</v>
+      </c>
+      <c r="S21">
+        <v>0.00304934700426118</v>
+      </c>
+      <c r="T21">
+        <v>0.002587732485630865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.047098</v>
+      </c>
+      <c r="H22">
+        <v>0.141294</v>
+      </c>
+      <c r="I22">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J22">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.978421000000001</v>
+      </c>
+      <c r="N22">
+        <v>17.935263</v>
+      </c>
+      <c r="O22">
+        <v>0.05704457007880161</v>
+      </c>
+      <c r="P22">
+        <v>0.06242884486533885</v>
+      </c>
+      <c r="Q22">
+        <v>0.2815716722580001</v>
+      </c>
+      <c r="R22">
+        <v>2.534145050322</v>
+      </c>
+      <c r="S22">
+        <v>0.002382131267153353</v>
+      </c>
+      <c r="T22">
+        <v>0.003032281234196544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.047098</v>
+      </c>
+      <c r="H23">
+        <v>0.141294</v>
+      </c>
+      <c r="I23">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J23">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>69.657865</v>
+      </c>
+      <c r="N23">
+        <v>208.973595</v>
+      </c>
+      <c r="O23">
+        <v>0.6646576013185088</v>
+      </c>
+      <c r="P23">
+        <v>0.7273927426214574</v>
+      </c>
+      <c r="Q23">
+        <v>3.28074612577</v>
+      </c>
+      <c r="R23">
+        <v>29.52671513193</v>
+      </c>
+      <c r="S23">
+        <v>0.02775551909436408</v>
+      </c>
+      <c r="T23">
+        <v>0.03533077326834229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.047098</v>
+      </c>
+      <c r="H24">
+        <v>0.141294</v>
+      </c>
+      <c r="I24">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J24">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.290243</v>
+      </c>
+      <c r="N24">
+        <v>3.870729</v>
+      </c>
+      <c r="O24">
+        <v>0.01231116999491725</v>
+      </c>
+      <c r="P24">
+        <v>0.01347318632889677</v>
+      </c>
+      <c r="Q24">
+        <v>0.060767864814</v>
+      </c>
+      <c r="R24">
+        <v>0.546910783326</v>
+      </c>
+      <c r="S24">
+        <v>0.0005141036726128427</v>
+      </c>
+      <c r="T24">
+        <v>0.0006544168830621749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.047098</v>
+      </c>
+      <c r="H25">
+        <v>0.141294</v>
+      </c>
+      <c r="I25">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J25">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>27.1166075</v>
+      </c>
+      <c r="N25">
+        <v>54.233215</v>
+      </c>
+      <c r="O25">
+        <v>0.2587397603536297</v>
+      </c>
+      <c r="P25">
+        <v>0.1887743138075849</v>
+      </c>
+      <c r="Q25">
+        <v>1.277137980035</v>
+      </c>
+      <c r="R25">
+        <v>7.66282788021</v>
+      </c>
+      <c r="S25">
+        <v>0.01080474569871796</v>
+      </c>
+      <c r="T25">
+        <v>0.009169107813732449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.047098</v>
+      </c>
+      <c r="H26">
+        <v>0.141294</v>
+      </c>
+      <c r="I26">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J26">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.759494</v>
+      </c>
+      <c r="N26">
+        <v>2.278482</v>
+      </c>
+      <c r="O26">
+        <v>0.00724689825414258</v>
+      </c>
+      <c r="P26">
+        <v>0.007930912376722157</v>
+      </c>
+      <c r="Q26">
+        <v>0.035770648412</v>
+      </c>
+      <c r="R26">
+        <v>0.321935835708</v>
+      </c>
+      <c r="S26">
+        <v>0.0003026241217564585</v>
+      </c>
+      <c r="T26">
+        <v>0.0003852186729045795</v>
       </c>
     </row>
   </sheetData>
